--- a/Results/Path_Load_gamma_gam_Results.xlsx
+++ b/Results/Path_Load_gamma_gam_Results.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tweedie(p=1.01)</t>
+          <t>Gamma</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>117.6662177927519</v>
+        <v>1664.120384570553</v>
       </c>
       <c r="E2">
         <v>0.8158739439654231</v>
